--- a/src/test/resources/testData/OpenCart_TestData.xlsx
+++ b/src/test/resources/testData/OpenCart_TestData.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F9FE25A7-C661-466F-BCE5-360F6E88D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\eclipse\March2023POMSeries\src\test\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486A40D-6856-43A3-8CA4-A8E54AE8744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A4B923CB-8CFA-48FE-8661-50BD0E9868FB}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{A4B923CB-8CFA-48FE-8661-50BD0E9868FB}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="3" r:id="rId1"/>
     <sheet name="accounts" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,7 +580,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
